--- a/Research/lib/ข้อมูลlib.xlsx
+++ b/Research/lib/ข้อมูลlib.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7095568C-029C-4F08-8664-BFB5BE1178BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4377504F-284F-437D-95FC-E61186240EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="numpy" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ชื่อคำสั่ง</t>
   </si>
@@ -49,6 +49,66 @@
   </si>
   <si>
     <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>แสดงรูปร่างของอาเรย์</t>
+  </si>
+  <si>
+    <t>จำนวนสมาชิกในอาเรย์</t>
+  </si>
+  <si>
+    <t>array([1,2,3]).size</t>
+  </si>
+  <si>
+    <t>array([1,2,3]).shape|array([1,1],[1,1]).shape</t>
+  </si>
+  <si>
+    <t>3 | (2,2)</t>
+  </si>
+  <si>
+    <t>.shape |shape([arg])</t>
+  </si>
+  <si>
+    <t>.size | size([arg])</t>
+  </si>
+  <si>
+    <t>.ndim | ndim([arg])</t>
+  </si>
+  <si>
+    <t>จำนวนมิติของอาเรย์</t>
+  </si>
+  <si>
+    <t>array([[1,1],[1,1]]).ndim</t>
+  </si>
+  <si>
+    <t>หาค่าสูงสุดในอาเรย์</t>
+  </si>
+  <si>
+    <t>.max([arg])</t>
+  </si>
+  <si>
+    <t>array([[7,1],[10,1]]).max</t>
+  </si>
+  <si>
+    <t>.min([arg])</t>
+  </si>
+  <si>
+    <t>หาค่าต่ำสุดในอาเรย์</t>
+  </si>
+  <si>
+    <t>array([[7,1],[10,3]]).min</t>
+  </si>
+  <si>
+    <t>.expand_dims([arg], axis=?)</t>
+  </si>
+  <si>
+    <t>เพิ่มแกนมิติ กำหนดแกนที่จะแทรกด้วย axis และ กำหนดอาเรย์ที่จะกระทำด้วย argument[1]</t>
+  </si>
+  <si>
+    <t>array([1,1]).expand_dims(array[1,1], axis = 0)</t>
+  </si>
+  <si>
+    <t>[[1,1]]</t>
   </si>
 </sst>
 </file>
@@ -401,14 +461,14 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="71.375" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -449,40 +509,88 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
